--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -846,7 +846,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -903,79 +903,79 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <f>SUM(C5:C24)</f>
+        <f t="shared" ref="C2:H2" si="0">SUM(C5:C24)</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(D5:D24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>SUM(E5:E24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>SUM(F5:F24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(G5:G24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM(H5:H24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:J2" si="0">SUM(I5:I24)</f>
+        <f t="shared" ref="I2:J2" si="1">SUM(I5:I24)</f>
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" ref="K2:U2" si="1">SUM(K5:K24)</f>
+        <f t="shared" ref="K2:U2" si="2">SUM(K5:K24)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V2" s="30" t="s">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9">
         <v>55</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="6" spans="1:24" ht="22.5" customHeight="1">
       <c r="A6" s="19">
-        <f t="shared" ref="A6:A24" si="2">A5+1</f>
+        <f t="shared" ref="A6:A24" si="3">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="24"/>
@@ -1190,18 +1190,18 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="21">
-        <f t="shared" ref="V6:V24" si="3">SUM(C6:U6)</f>
+        <f t="shared" ref="V6:V24" si="4">SUM(C6:U6)</f>
         <v>0</v>
       </c>
       <c r="W6" s="22">
-        <f t="shared" ref="W6:W24" si="4">SUMPRODUCT($C$3:$U$3,C6:U6)</f>
+        <f t="shared" ref="W6:W24" si="5">SUMPRODUCT($C$3:$U$3,C6:U6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="22.5" customHeight="1">
       <c r="A7" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B7" s="23"/>
@@ -1225,18 +1225,18 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" ht="22.5" customHeight="1">
       <c r="A8" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B8" s="24"/>
@@ -1260,18 +1260,18 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
       <c r="V8" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W8" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="22.5" customHeight="1">
       <c r="A9" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B9" s="23"/>
@@ -1295,18 +1295,18 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="22.5" customHeight="1">
       <c r="A10" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B10" s="24"/>
@@ -1330,18 +1330,18 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W10" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" ht="22.5" customHeight="1">
       <c r="A11" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B11" s="25"/>
@@ -1365,18 +1365,18 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" ht="22.5" customHeight="1">
       <c r="A12" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B12" s="24"/>
@@ -1400,18 +1400,18 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W12" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" ht="22.5" customHeight="1">
       <c r="A13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B13" s="23"/>
@@ -1435,18 +1435,18 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
       <c r="V13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24" ht="22.5" customHeight="1">
       <c r="A14" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B14" s="24"/>
@@ -1470,18 +1470,18 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W14" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" ht="22.5" customHeight="1">
       <c r="A15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B15" s="23"/>
@@ -1505,18 +1505,18 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" ht="22.5" customHeight="1">
       <c r="A16" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B16" s="24"/>
@@ -1540,18 +1540,18 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W16" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="22.5" customHeight="1">
       <c r="A17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B17" s="23"/>
@@ -1575,18 +1575,18 @@
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" ht="22.5" customHeight="1">
       <c r="A18" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B18" s="24"/>
@@ -1610,18 +1610,18 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W18" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="22.5" customHeight="1">
       <c r="A19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B19" s="23"/>
@@ -1645,18 +1645,18 @@
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
       <c r="V19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="19.5">
       <c r="A20" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B20" s="24"/>
@@ -1680,18 +1680,18 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
       <c r="V20" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:24" ht="19.5">
       <c r="A21" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B21" s="26"/>
@@ -1715,18 +1715,18 @@
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
       <c r="V21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" ht="19.5">
       <c r="A22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B22" s="27"/>
@@ -1750,18 +1750,18 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
       <c r="V22" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W22" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" ht="19.5">
       <c r="A23" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B23" s="26"/>
@@ -1785,18 +1785,18 @@
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:24" ht="19.5">
       <c r="A24" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B24" s="27"/>
@@ -1820,11 +1820,11 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W24" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X24" s="3"/>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -3,6 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -124,33 +125,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>黑貝果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抹茶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>藍莓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">明太子
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="PMingLiu"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>New</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +162,28 @@
       </rPr>
       <t xml:space="preserve"> 團購訂單</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蘋果乳酪
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明太子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -853,8 +854,8 @@
   <cols>
     <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="7" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.375" style="4" customWidth="1"/>
@@ -872,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -993,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D3" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E3" s="9">
         <v>55</v>
       </c>
       <c r="F3" s="9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G3" s="9">
         <v>55</v>
@@ -1066,19 +1067,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>17</v>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>訂購者</t>
-  </si>
-  <si>
-    <t>芒果</t>
   </si>
   <si>
     <t>原味</t>
@@ -96,11 +93,6 @@
   <si>
     <t>蔓越莓
 起司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芒果
-乳酪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -184,6 +176,15 @@
   </si>
   <si>
     <t>明太子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑葚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑葚
+乳酪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -901,7 +902,7 @@
     <row r="2" spans="1:24" ht="22.5" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:H2" si="0">SUM(C5:C24)</f>
@@ -980,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="W2" s="31">
         <f>SUM(C2:U2)</f>
@@ -1051,7 +1052,7 @@
         <v>35</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W3" s="29">
         <f>SUM(W5:W24)</f>
@@ -1067,67 +1068,67 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>23</v>
+      <c r="M4" s="15" t="s">
+        <v>5</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>24</v>
+      <c r="N4" s="15" t="s">
+        <v>16</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>22</v>
+      <c r="O4" s="15" t="s">
+        <v>6</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>17</v>
+      <c r="P4" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>15</v>
+      <c r="Q4" s="15" t="s">
+        <v>7</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>14</v>
+      <c r="R4" s="15" t="s">
+        <v>8</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="S4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>4</v>
-      </c>
       <c r="V4" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" s="5"/>
     </row>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3" s="9">
         <v>60</v>
@@ -1028,7 +1028,7 @@
         <v>50</v>
       </c>
       <c r="N3" s="9">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O3" s="9">
         <v>50</v>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C98E1D4-DA93-44A4-AF10-36C5F12FD051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="29535" yWindow="735" windowWidth="24585" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -55,11 +66,6 @@
   <si>
     <t>可可
 蜂蜜丁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃金
-亞麻籽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -187,11 +193,29 @@
 乳酪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">肉鬆冰心
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PMingLiu"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -541,7 +565,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -633,6 +657,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -668,6 +709,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -843,7 +901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -855,16 +913,20 @@
   <cols>
     <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8" style="4" customWidth="1"/>
     <col min="5" max="5" width="7" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="4" customWidth="1"/>
     <col min="7" max="7" width="6.375" style="4" customWidth="1"/>
-    <col min="8" max="10" width="7" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7" style="4" customWidth="1"/>
     <col min="11" max="11" width="6.125" style="4" customWidth="1"/>
-    <col min="12" max="15" width="7" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="4" customWidth="1"/>
-    <col min="17" max="20" width="7" style="4" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="4" customWidth="1"/>
+    <col min="13" max="15" width="7" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7.875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="4" customWidth="1"/>
+    <col min="18" max="20" width="7" style="4" customWidth="1"/>
     <col min="21" max="21" width="6.5" style="4" customWidth="1"/>
     <col min="22" max="22" width="7" style="4" customWidth="1"/>
     <col min="23" max="23" width="9" style="4" customWidth="1"/>
@@ -874,7 +936,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" customHeight="1">
       <c r="A1" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -981,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W2" s="31">
         <f>SUM(C2:U2)</f>
@@ -998,10 +1060,10 @@
         <v>55</v>
       </c>
       <c r="D3" s="9">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" s="9">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F3" s="9">
         <v>55</v>
@@ -1013,46 +1075,46 @@
         <v>55</v>
       </c>
       <c r="I3" s="9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J3" s="9">
         <v>50</v>
       </c>
       <c r="K3" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L3" s="9">
         <v>55</v>
       </c>
       <c r="M3" s="9">
+        <v>55</v>
+      </c>
+      <c r="N3" s="9">
         <v>50</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="9">
         <v>48</v>
       </c>
-      <c r="O3" s="9">
+      <c r="P3" s="9">
         <v>50</v>
       </c>
-      <c r="P3" s="9">
+      <c r="Q3" s="9">
         <v>55</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="R3" s="9">
         <v>50</v>
-      </c>
-      <c r="R3" s="9">
-        <v>55</v>
       </c>
       <c r="S3" s="9">
         <v>55</v>
       </c>
       <c r="T3" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="U3" s="9">
         <v>35</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W3" s="29">
         <f>SUM(W5:W24)</f>
@@ -1068,22 +1130,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>25</v>
+      <c r="F4" s="15" t="s">
+        <v>20</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>14</v>
@@ -1091,44 +1153,44 @@
       <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>16</v>
+      <c r="O4" s="15" t="s">
+        <v>15</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>12</v>
+      <c r="Q4" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="U4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X4" s="5"/>
     </row>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C98E1D4-DA93-44A4-AF10-36C5F12FD051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8E380-FAFF-4AAA-811A-E792CBA13410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="735" windowWidth="24585" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30450" yWindow="465" windowWidth="24585" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9">
         <v>55</v>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8E380-FAFF-4AAA-811A-E792CBA13410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA791B-A32F-4241-80AD-3DFD84763567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="30450" yWindow="465" windowWidth="24585" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31380" yWindow="720" windowWidth="21435" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
@@ -1066,22 +1066,22 @@
         <v>60</v>
       </c>
       <c r="F3" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G3" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H3" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K3" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L3" s="9">
         <v>55</v>
@@ -1090,28 +1090,28 @@
         <v>55</v>
       </c>
       <c r="N3" s="9">
+        <v>52</v>
+      </c>
+      <c r="O3" s="9">
         <v>50</v>
       </c>
-      <c r="O3" s="9">
-        <v>48</v>
-      </c>
       <c r="P3" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R3" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S3" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T3" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="U3" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V3" s="28" t="s">
         <v>16</v>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEA791B-A32F-4241-80AD-3DFD84763567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A20FE1-744B-40A7-A1CE-93AE8FB10604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="720" windowWidth="21435" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="240" windowWidth="20910" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -163,8 +166,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>明太子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">蘋果乳酪
+      <t xml:space="preserve">原味奶酥
 </t>
     </r>
     <r>
@@ -181,22 +188,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>明太子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑葚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桑葚
-乳酪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">肉鬆冰心
-</t>
+      <t>伯爵奶酥</t>
     </r>
     <r>
       <rPr>
@@ -209,6 +202,16 @@
       </rPr>
       <t>New</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉鬆
+冰心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果
+乳酪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -922,7 +925,7 @@
     <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="7" style="4" customWidth="1"/>
     <col min="11" max="11" width="6.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="6.625" style="4" customWidth="1"/>
     <col min="13" max="15" width="7" style="4" customWidth="1"/>
     <col min="16" max="16" width="7.875" style="4" customWidth="1"/>
     <col min="17" max="17" width="8.5" style="4" customWidth="1"/>
@@ -1057,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="9">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9">
         <v>58</v>
       </c>
-      <c r="D3" s="9">
+      <c r="F3" s="9">
         <v>55</v>
       </c>
-      <c r="E3" s="9">
+      <c r="G3" s="9">
         <v>60</v>
-      </c>
-      <c r="F3" s="9">
-        <v>58</v>
-      </c>
-      <c r="G3" s="9">
-        <v>58</v>
       </c>
       <c r="H3" s="9">
         <v>58</v>
@@ -1078,16 +1081,16 @@
         <v>58</v>
       </c>
       <c r="J3" s="9">
+        <v>58</v>
+      </c>
+      <c r="K3" s="9">
+        <v>58</v>
+      </c>
+      <c r="L3" s="9">
         <v>52</v>
       </c>
-      <c r="K3" s="9">
+      <c r="M3" s="9">
         <v>52</v>
-      </c>
-      <c r="L3" s="9">
-        <v>55</v>
-      </c>
-      <c r="M3" s="9">
-        <v>55</v>
       </c>
       <c r="N3" s="9">
         <v>52</v>
@@ -1130,37 +1133,37 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>5</v>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -1,30 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A20FE1-744B-40A7-A1CE-93AE8FB10604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5CB58D-5B63-482F-AD52-A76A328ACE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="240" windowWidth="20910" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32145" yWindow="1470" windowWidth="20910" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -170,9 +157,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>肉鬆
+冰心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果
+乳酪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">原味奶酥
-</t>
+      <t>原味奶酥</t>
     </r>
     <r>
       <rPr>
@@ -189,7 +185,8 @@
   </si>
   <si>
     <r>
-      <t>伯爵奶酥</t>
+      <t xml:space="preserve">伯爵奶酥
+</t>
     </r>
     <r>
       <rPr>
@@ -202,16 +199,6 @@
       </rPr>
       <t>New</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉鬆
-冰心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘋果
-乳酪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,7 +439,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,11 +448,10 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,12 +470,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -536,7 +521,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,58 +899,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7" style="4" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="6" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.625" style="4" customWidth="1"/>
-    <col min="13" max="15" width="7" style="4" customWidth="1"/>
-    <col min="16" max="16" width="7.875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="4" customWidth="1"/>
-    <col min="18" max="20" width="7" style="4" customWidth="1"/>
-    <col min="21" max="21" width="6.5" style="4" customWidth="1"/>
-    <col min="22" max="22" width="7" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9" style="4" customWidth="1"/>
-    <col min="24" max="24" width="4.75" style="4" customWidth="1"/>
-    <col min="25" max="16384" width="12.625" style="4"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="6.25" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="12" max="12" width="6.625" customWidth="1"/>
+    <col min="13" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="7.875" customWidth="1"/>
+    <col min="17" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="20" width="7" customWidth="1"/>
+    <col min="21" max="21" width="6.5" customWidth="1"/>
+    <col min="22" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
+    <col min="24" max="24" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A2" s="11"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1045,859 +1029,859 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="29">
         <f>SUM(C2:U2)</f>
         <v>0</v>
       </c>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>50</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>50</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>58</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <v>55</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>60</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>58</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>58</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>58</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <v>58</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="7">
         <v>52</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <v>52</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="7">
         <v>52</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="7">
         <v>50</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="7">
         <v>52</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="7">
         <v>58</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="7">
         <v>52</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="7">
         <v>58</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="7">
         <v>58</v>
       </c>
-      <c r="U3" s="9">
+      <c r="U3" s="7">
         <v>38</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="27">
         <f>SUM(W5:W24)</f>
         <v>0</v>
       </c>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="30" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="W4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="X4" s="5"/>
+      <c r="X4" s="4"/>
     </row>
     <row r="5" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="6">
+      <c r="B5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="5">
         <f>SUM(C5:U5)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <f>SUMPRODUCT($C$3:$U$3,C5:U5)</f>
         <v>0</v>
       </c>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <f t="shared" ref="A6:A24" si="3">A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21">
+      <c r="B6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19">
         <f t="shared" ref="V6:V24" si="4">SUM(C6:U6)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="20">
         <f t="shared" ref="W6:W24" si="5">SUMPRODUCT($C$3:$U$3,C6:U6)</f>
         <v>0</v>
       </c>
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="6">
+      <c r="B7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A8" s="19">
+      <c r="A8" s="17">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="21">
+      <c r="B8" s="22"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="6">
+      <c r="B9" s="21"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="21">
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W10" s="22">
+      <c r="W10" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="6">
+      <c r="B11" s="23"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="21">
+      <c r="B12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W12" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="6">
+      <c r="B13" s="21"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X13" s="3"/>
     </row>
     <row r="14" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="21">
+      <c r="B14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="6">
+      <c r="B15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="21">
+      <c r="B16" s="22"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W16" s="22">
+      <c r="W16" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="6">
+      <c r="B17" s="21"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X17" s="3"/>
     </row>
     <row r="18" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="21">
+      <c r="B18" s="22"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="22">
+      <c r="W18" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X18" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="22.5" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="6">
+      <c r="B19" s="21"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W19" s="7">
+      <c r="W19" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X19" s="3"/>
     </row>
     <row r="20" spans="1:24" ht="19.5">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="21">
+      <c r="B20" s="22"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W20" s="22">
+      <c r="W20" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X20" s="3"/>
     </row>
     <row r="21" spans="1:24" ht="19.5">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="6">
+      <c r="B21" s="24"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21" s="7">
+      <c r="W21" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" ht="19.5">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="21">
+      <c r="B22" s="25"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W22" s="22">
+      <c r="W22" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" ht="19.5">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="6">
+      <c r="B23" s="24"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X23" s="3"/>
     </row>
     <row r="24" spans="1:24" ht="19.5">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="21">
+      <c r="B24" s="25"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W24" s="22">
+      <c r="W24" s="20">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X24" s="3"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="8"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1923,7 +1907,7 @@
       <c r="X25" s="3"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="8"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1949,7 +1933,7 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="8"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1975,7 +1959,7 @@
       <c r="X27" s="3"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="8"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2001,7 +1985,7 @@
       <c r="X28" s="3"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="8"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -2027,7 +2011,7 @@
       <c r="X29" s="3"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="8"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2053,7 +2037,7 @@
       <c r="X30" s="3"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="8"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2079,7 +2063,7 @@
       <c r="X31" s="3"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="8"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2105,7 +2089,7 @@
       <c r="X32" s="3"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="8"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D114FD3-07E5-4DD4-BCA2-B2990A4F21E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88427AF1-2B76-432D-8784-BE39CA44C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="300" windowWidth="24975" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
@@ -46,11 +46,6 @@
   <si>
     <t>巧克力
 杏桃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可
-蜂蜜丁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -200,6 +195,11 @@
       </rPr>
       <t>New</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可
+乳酪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -571,9 +571,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -611,9 +611,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,26 +646,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -698,26 +681,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -895,7 +861,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
@@ -924,7 +890,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -956,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:I2" si="0">SUM(C5:C24)</f>
+        <f t="shared" ref="C2" si="0">SUM(C5:C24)</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
@@ -1008,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="L2:V2" si="3">SUM(P5:P24)</f>
+        <f t="shared" ref="P2:V2" si="3">SUM(P5:P24)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="2">
@@ -1036,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X2" s="29">
         <f>SUM(C2:V2)</f>
@@ -1056,7 +1022,7 @@
         <v>58</v>
       </c>
       <c r="E3" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" s="7">
         <v>50</v>
@@ -1068,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="I3" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" s="7">
         <v>60</v>
@@ -1083,22 +1049,22 @@
         <v>58</v>
       </c>
       <c r="N3" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" s="7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P3" s="7">
         <v>50</v>
       </c>
       <c r="Q3" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R3" s="7">
         <v>58</v>
       </c>
       <c r="S3" s="7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T3" s="7">
         <v>58</v>
@@ -1110,7 +1076,7 @@
         <v>38</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X3" s="27">
         <f>SUM(X5:X24)</f>
@@ -1126,52 +1092,52 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S4" s="13" t="s">
         <v>6</v>
@@ -1180,16 +1146,16 @@
         <v>7</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="4"/>
     </row>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88427AF1-2B76-432D-8784-BE39CA44C48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AD0F6-A168-43F4-BDA1-A365A6520B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="20775" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
@@ -34,55 +34,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>德式
-香腸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>起司
-三重奏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>巧克力
-杏桃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金額
 小計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">德式香腸
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="PMingLiu"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>貝果捲</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉拿
-貝果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔓越莓
-起司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹽之花</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -129,41 +82,14 @@
     <t>抹茶</t>
   </si>
   <si>
-    <t>藍莓
-乳酪</t>
-  </si>
-  <si>
     <t>藍莓</t>
   </si>
   <si>
     <t>明太子</t>
   </si>
   <si>
-    <t>蘋果
-乳酪</t>
-  </si>
-  <si>
-    <t>肉鬆
-冰心</t>
-  </si>
-  <si>
-    <t>伯爵
-奶酥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原味
-奶酥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉鬆
-乳酪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">香橙
+      <t xml:space="preserve">草莓戀人
 </t>
     </r>
     <r>
@@ -181,7 +107,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">香橙乳酪
+      <t xml:space="preserve">草莓
 </t>
     </r>
     <r>
@@ -198,8 +124,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>可可
+    <t>香橙</t>
+  </si>
+  <si>
+    <t>香橙_x000D_
 乳酪</t>
+  </si>
+  <si>
+    <t>伯爵_x000D_
+奶酥</t>
+  </si>
+  <si>
+    <t>原味_x000D_
+奶酥</t>
+  </si>
+  <si>
+    <t>肉鬆_x000D_
+冰心</t>
+  </si>
+  <si>
+    <t>蘋果_x000D_
+乳酪</t>
+  </si>
+  <si>
+    <t>藍莓_x000D_
+乳酪</t>
+  </si>
+  <si>
+    <t>吉拿</t>
+  </si>
+  <si>
+    <t>鹽之花</t>
+  </si>
+  <si>
+    <t>德式_x000D_
+香腸</t>
+  </si>
+  <si>
+    <t>德式香腸_x000D_
+貝果捲</t>
+  </si>
+  <si>
+    <t>起司_x000D_
+三重奏</t>
+  </si>
+  <si>
+    <t>巧克力_x000D_
+杏桃</t>
+  </si>
+  <si>
+    <t>蔓越莓
+起司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -868,20 +843,23 @@
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
     <col min="8" max="8" width="6.375" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="6.375" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="12" max="12" width="6.125" customWidth="1"/>
-    <col min="13" max="13" width="5.625" customWidth="1"/>
-    <col min="14" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="6.875" customWidth="1"/>
-    <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="21" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="6.5" customWidth="1"/>
+    <col min="16" max="16" width="6.125" customWidth="1"/>
+    <col min="17" max="17" width="7.875" customWidth="1"/>
+    <col min="18" max="18" width="7.25" customWidth="1"/>
+    <col min="19" max="19" width="8.875" customWidth="1"/>
+    <col min="20" max="21" width="7" customWidth="1"/>
     <col min="22" max="22" width="6.5" customWidth="1"/>
     <col min="23" max="23" width="7" customWidth="1"/>
     <col min="24" max="24" width="9" customWidth="1"/>
@@ -890,7 +868,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -922,35 +900,35 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2" si="0">SUM(C5:C24)</f>
+        <f t="shared" ref="C2:I2" si="0">SUM(C5:C24)</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:E2" si="1">SUM(D5:D24)</f>
+        <f t="shared" ref="D2" si="1">SUM(D5:D24)</f>
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:O2" si="2">SUM(F5:F24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J2:K2" si="2">SUM(J5:J24)</f>
         <v>0</v>
       </c>
       <c r="K2" s="2">
@@ -958,23 +936,23 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L2:V2" si="3">SUM(L5:L24)</f>
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:V2" si="3">SUM(P5:P24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q2" s="2">
@@ -1002,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="X2" s="29">
         <f>SUM(C2:V2)</f>
@@ -1016,58 +994,58 @@
         <v>0</v>
       </c>
       <c r="C3" s="7">
+        <v>60</v>
+      </c>
+      <c r="D3" s="7">
+        <v>60</v>
+      </c>
+      <c r="E3" s="7">
         <v>58</v>
       </c>
-      <c r="D3" s="7">
+      <c r="F3" s="7">
         <v>58</v>
       </c>
-      <c r="E3" s="7">
+      <c r="G3" s="7">
+        <v>55</v>
+      </c>
+      <c r="H3" s="7">
+        <v>50</v>
+      </c>
+      <c r="I3" s="7">
+        <v>50</v>
+      </c>
+      <c r="J3" s="7">
+        <v>58</v>
+      </c>
+      <c r="K3" s="7">
         <v>56</v>
       </c>
-      <c r="F3" s="7">
-        <v>50</v>
-      </c>
-      <c r="G3" s="7">
-        <v>50</v>
-      </c>
-      <c r="H3" s="7">
-        <v>58</v>
-      </c>
-      <c r="I3" s="7">
-        <v>56</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="L3" s="7">
         <v>60</v>
-      </c>
-      <c r="K3" s="7">
-        <v>58</v>
-      </c>
-      <c r="L3" s="7">
-        <v>58</v>
       </c>
       <c r="M3" s="7">
         <v>58</v>
       </c>
       <c r="N3" s="7">
+        <v>58</v>
+      </c>
+      <c r="O3" s="7">
+        <v>58</v>
+      </c>
+      <c r="P3" s="7">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>50</v>
+      </c>
+      <c r="R3" s="7">
         <v>53</v>
       </c>
-      <c r="O3" s="7">
-        <v>55</v>
-      </c>
-      <c r="P3" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>53</v>
-      </c>
-      <c r="R3" s="7">
+      <c r="S3" s="7">
         <v>58</v>
       </c>
-      <c r="S3" s="7">
+      <c r="T3" s="7">
         <v>55</v>
-      </c>
-      <c r="T3" s="7">
-        <v>58</v>
       </c>
       <c r="U3" s="7">
         <v>58</v>
@@ -1076,7 +1054,7 @@
         <v>38</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X3" s="27">
         <f>SUM(X5:X24)</f>
@@ -1092,70 +1070,70 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" s="13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="4"/>
     </row>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AD0F6-A168-43F4-BDA1-A365A6520B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB2885-A3B5-40A4-9AC2-396835798EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="20775" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31770" yWindow="960" windowWidth="24900" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
@@ -1051,7 +1051,7 @@
         <v>58</v>
       </c>
       <c r="V3" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>6</v>

--- a/form/purchase.xlsx
+++ b/form/purchase.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFB2885-A3B5-40A4-9AC2-396835798EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F191A5-2C88-4A08-B247-621F02A44915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="31770" yWindow="960" windowWidth="24900" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="375" windowWidth="24900" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="團購表單" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,6 @@
 冰心</t>
   </si>
   <si>
-    <t>蘋果_x000D_
-乳酪</t>
-  </si>
-  <si>
     <t>藍莓_x000D_
 乳酪</t>
   </si>
@@ -175,6 +171,11 @@
   <si>
     <t>蔓越莓
 起司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果
+乳酪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1018,7 +1019,7 @@
         <v>58</v>
       </c>
       <c r="K3" s="7">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" s="7">
         <v>60</v>
@@ -1082,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>17</v>
@@ -1094,7 +1095,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>12</v>
@@ -1103,28 +1104,28 @@
         <v>11</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>3</v>
